--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.89065842715613</v>
+        <v>3.115714333333333</v>
       </c>
       <c r="H2">
-        <v>1.89065842715613</v>
+        <v>9.347142999999999</v>
       </c>
       <c r="I2">
-        <v>0.005209665599982509</v>
+        <v>0.008526392243866433</v>
       </c>
       <c r="J2">
-        <v>0.005209665599982509</v>
+        <v>0.008526392243866435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N2">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O2">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P2">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q2">
-        <v>63.42460066211235</v>
+        <v>107.0584007147994</v>
       </c>
       <c r="R2">
-        <v>63.42460066211235</v>
+        <v>963.5256064331949</v>
       </c>
       <c r="S2">
-        <v>0.001621666936504885</v>
+        <v>0.002429192191916473</v>
       </c>
       <c r="T2">
-        <v>0.001621666936504885</v>
+        <v>0.002429192191916474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.89065842715613</v>
+        <v>3.115714333333333</v>
       </c>
       <c r="H3">
-        <v>1.89065842715613</v>
+        <v>9.347142999999999</v>
       </c>
       <c r="I3">
-        <v>0.005209665599982509</v>
+        <v>0.008526392243866433</v>
       </c>
       <c r="J3">
-        <v>0.005209665599982509</v>
+        <v>0.008526392243866435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N3">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O3">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P3">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q3">
-        <v>40.02157487118383</v>
+        <v>67.12686783879123</v>
       </c>
       <c r="R3">
-        <v>40.02157487118383</v>
+        <v>604.1418105491209</v>
       </c>
       <c r="S3">
-        <v>0.001023288503796975</v>
+        <v>0.001523131880665757</v>
       </c>
       <c r="T3">
-        <v>0.001023288503796975</v>
+        <v>0.001523131880665757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.89065842715613</v>
+        <v>3.115714333333333</v>
       </c>
       <c r="H4">
-        <v>1.89065842715613</v>
+        <v>9.347142999999999</v>
       </c>
       <c r="I4">
-        <v>0.005209665599982509</v>
+        <v>0.008526392243866433</v>
       </c>
       <c r="J4">
-        <v>0.005209665599982509</v>
+        <v>0.008526392243866435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N4">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O4">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P4">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q4">
-        <v>92.68028965067879</v>
+        <v>187.0406581186375</v>
       </c>
       <c r="R4">
-        <v>92.68028965067879</v>
+        <v>1683.365923067738</v>
       </c>
       <c r="S4">
-        <v>0.002369688729975459</v>
+        <v>0.004244017314279792</v>
       </c>
       <c r="T4">
-        <v>0.002369688729975459</v>
+        <v>0.004244017314279792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.89065842715613</v>
+        <v>3.115714333333333</v>
       </c>
       <c r="H5">
-        <v>1.89065842715613</v>
+        <v>9.347142999999999</v>
       </c>
       <c r="I5">
-        <v>0.005209665599982509</v>
+        <v>0.008526392243866433</v>
       </c>
       <c r="J5">
-        <v>0.005209665599982509</v>
+        <v>0.008526392243866435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N5">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O5">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P5">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q5">
-        <v>7.627433242404666</v>
+        <v>14.54587126659766</v>
       </c>
       <c r="R5">
-        <v>7.627433242404666</v>
+        <v>130.912841399379</v>
       </c>
       <c r="S5">
-        <v>0.0001950214297051901</v>
+        <v>0.0003300508570044113</v>
       </c>
       <c r="T5">
-        <v>0.0001950214297051901</v>
+        <v>0.0003300508570044114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>345.945726116828</v>
+        <v>346.7813516666667</v>
       </c>
       <c r="H6">
-        <v>345.945726116828</v>
+        <v>1040.344055</v>
       </c>
       <c r="I6">
-        <v>0.9532454529730765</v>
+        <v>0.9489938777554333</v>
       </c>
       <c r="J6">
-        <v>0.9532454529730765</v>
+        <v>0.9489938777554335</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N6">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O6">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P6">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q6">
-        <v>11605.20018559248</v>
+        <v>11915.68062256556</v>
       </c>
       <c r="R6">
-        <v>11605.20018559248</v>
+        <v>107241.1256030901</v>
       </c>
       <c r="S6">
-        <v>0.2967266523719393</v>
+        <v>0.2703709203242876</v>
       </c>
       <c r="T6">
-        <v>0.2967266523719393</v>
+        <v>0.2703709203242876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>345.945726116828</v>
+        <v>346.7813516666667</v>
       </c>
       <c r="H7">
-        <v>345.945726116828</v>
+        <v>1040.344055</v>
       </c>
       <c r="I7">
-        <v>0.9532454529730765</v>
+        <v>0.9489938777554333</v>
       </c>
       <c r="J7">
-        <v>0.9532454529730765</v>
+        <v>0.9489938777554335</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N7">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O7">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P7">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q7">
-        <v>7323.000590845142</v>
+        <v>7471.270942025511</v>
       </c>
       <c r="R7">
-        <v>7323.000590845142</v>
+        <v>67241.4384782296</v>
       </c>
       <c r="S7">
-        <v>0.187237567287882</v>
+        <v>0.1695257253506863</v>
       </c>
       <c r="T7">
-        <v>0.187237567287882</v>
+        <v>0.1695257253506863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>345.945726116828</v>
+        <v>346.7813516666667</v>
       </c>
       <c r="H8">
-        <v>345.945726116828</v>
+        <v>1040.344055</v>
       </c>
       <c r="I8">
-        <v>0.9532454529730765</v>
+        <v>0.9489938777554333</v>
       </c>
       <c r="J8">
-        <v>0.9532454529730765</v>
+        <v>0.9489938777554335</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N8">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O8">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P8">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q8">
-        <v>16958.29856911235</v>
+        <v>20817.76610425368</v>
       </c>
       <c r="R8">
-        <v>16958.29856911235</v>
+        <v>187359.8949382831</v>
       </c>
       <c r="S8">
-        <v>0.4335969292958525</v>
+        <v>0.4723623231428093</v>
       </c>
       <c r="T8">
-        <v>0.4335969292958525</v>
+        <v>0.4723623231428095</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>345.945726116828</v>
+        <v>346.7813516666667</v>
       </c>
       <c r="H9">
-        <v>345.945726116828</v>
+        <v>1040.344055</v>
       </c>
       <c r="I9">
-        <v>0.9532454529730765</v>
+        <v>0.9489938777554333</v>
       </c>
       <c r="J9">
-        <v>0.9532454529730765</v>
+        <v>0.9489938777554335</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N9">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O9">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P9">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q9">
-        <v>1395.639684858535</v>
+        <v>1618.966426104769</v>
       </c>
       <c r="R9">
-        <v>1395.639684858535</v>
+        <v>14570.69783494292</v>
       </c>
       <c r="S9">
-        <v>0.03568430401740278</v>
+        <v>0.03673490893765019</v>
       </c>
       <c r="T9">
-        <v>0.03568430401740278</v>
+        <v>0.0367349089376502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.237780906335539</v>
+        <v>0.242641</v>
       </c>
       <c r="H10">
-        <v>0.237780906335539</v>
+        <v>0.727923</v>
       </c>
       <c r="I10">
-        <v>0.000655199791922343</v>
+        <v>0.0006640057845838012</v>
       </c>
       <c r="J10">
-        <v>0.000655199791922343</v>
+        <v>0.0006640057845838013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N10">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O10">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P10">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q10">
-        <v>7.976670356099867</v>
+        <v>8.337336041988333</v>
       </c>
       <c r="R10">
-        <v>7.976670356099867</v>
+        <v>75.03602437789499</v>
       </c>
       <c r="S10">
-        <v>0.0002039508715048643</v>
+        <v>0.0001891770424306566</v>
       </c>
       <c r="T10">
-        <v>0.0002039508715048643</v>
+        <v>0.0001891770424306566</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.237780906335539</v>
+        <v>0.242641</v>
       </c>
       <c r="H11">
-        <v>0.237780906335539</v>
+        <v>0.727923</v>
       </c>
       <c r="I11">
-        <v>0.000655199791922343</v>
+        <v>0.0006640057845838012</v>
       </c>
       <c r="J11">
-        <v>0.000655199791922343</v>
+        <v>0.0006640057845838013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N11">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O11">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P11">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q11">
-        <v>5.033360975816213</v>
+        <v>5.227607089975667</v>
       </c>
       <c r="R11">
-        <v>5.033360975816213</v>
+        <v>47.048463809781</v>
       </c>
       <c r="S11">
-        <v>0.000128695096047346</v>
+        <v>0.0001186162154542687</v>
       </c>
       <c r="T11">
-        <v>0.000128695096047346</v>
+        <v>0.0001186162154542687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.237780906335539</v>
+        <v>0.242641</v>
       </c>
       <c r="H12">
-        <v>0.237780906335539</v>
+        <v>0.727923</v>
       </c>
       <c r="I12">
-        <v>0.000655199791922343</v>
+        <v>0.0006640057845838012</v>
       </c>
       <c r="J12">
-        <v>0.000655199791922343</v>
+        <v>0.0006640057845838013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N12">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O12">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P12">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q12">
-        <v>11.65604688612472</v>
+        <v>14.56607617746867</v>
       </c>
       <c r="R12">
-        <v>11.65604688612472</v>
+        <v>131.094685597218</v>
       </c>
       <c r="S12">
-        <v>0.0002980267222536999</v>
+        <v>0.000330509313430049</v>
       </c>
       <c r="T12">
-        <v>0.0002980267222536999</v>
+        <v>0.0003305093134300491</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.237780906335539</v>
+        <v>0.242641</v>
       </c>
       <c r="H13">
-        <v>0.237780906335539</v>
+        <v>0.727923</v>
       </c>
       <c r="I13">
-        <v>0.000655199791922343</v>
+        <v>0.0006640057845838012</v>
       </c>
       <c r="J13">
-        <v>0.000655199791922343</v>
+        <v>0.0006640057845838013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N13">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O13">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P13">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q13">
-        <v>0.9592732157975509</v>
+        <v>1.132781883191</v>
       </c>
       <c r="R13">
-        <v>0.9592732157975509</v>
+        <v>10.195036948719</v>
       </c>
       <c r="S13">
-        <v>2.452710211643284E-05</v>
+        <v>2.570321326882686E-05</v>
       </c>
       <c r="T13">
-        <v>2.452710211643284E-05</v>
+        <v>2.570321326882686E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.8394210114443</v>
+        <v>15.28030233333333</v>
       </c>
       <c r="H14">
-        <v>14.8394210114443</v>
+        <v>45.840907</v>
       </c>
       <c r="I14">
-        <v>0.04088968163501853</v>
+        <v>0.04181572421611635</v>
       </c>
       <c r="J14">
-        <v>0.04088968163501853</v>
+        <v>0.04181572421611637</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N14">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O14">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P14">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q14">
-        <v>497.8077151267956</v>
+        <v>525.0432341450061</v>
       </c>
       <c r="R14">
-        <v>497.8077151267956</v>
+        <v>4725.389107305055</v>
       </c>
       <c r="S14">
-        <v>0.01272815759075653</v>
+        <v>0.0119134128315753</v>
       </c>
       <c r="T14">
-        <v>0.01272815759075653</v>
+        <v>0.0119134128315753</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.8394210114443</v>
+        <v>15.28030233333333</v>
       </c>
       <c r="H15">
-        <v>14.8394210114443</v>
+        <v>45.840907</v>
       </c>
       <c r="I15">
-        <v>0.04088968163501853</v>
+        <v>0.04181572421611635</v>
       </c>
       <c r="J15">
-        <v>0.04088968163501853</v>
+        <v>0.04181572421611637</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N15">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O15">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P15">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q15">
-        <v>314.1217845191942</v>
+        <v>329.2082410421366</v>
       </c>
       <c r="R15">
-        <v>314.1217845191942</v>
+        <v>2962.874169379229</v>
       </c>
       <c r="S15">
-        <v>0.008031598254823347</v>
+        <v>0.007469849010583668</v>
       </c>
       <c r="T15">
-        <v>0.008031598254823347</v>
+        <v>0.007469849010583669</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.8394210114443</v>
+        <v>15.28030233333333</v>
       </c>
       <c r="H16">
-        <v>14.8394210114443</v>
+        <v>45.840907</v>
       </c>
       <c r="I16">
-        <v>0.04088968163501853</v>
+        <v>0.04181572421611635</v>
       </c>
       <c r="J16">
-        <v>0.04088968163501853</v>
+        <v>0.04181572421611637</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N16">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O16">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P16">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q16">
-        <v>727.4300941062861</v>
+        <v>917.2977683165069</v>
       </c>
       <c r="R16">
-        <v>727.4300941062861</v>
+        <v>8255.679914848562</v>
       </c>
       <c r="S16">
-        <v>0.01859923941051288</v>
+        <v>0.02081380406935998</v>
       </c>
       <c r="T16">
-        <v>0.01859923941051288</v>
+        <v>0.02081380406935999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.8394210114443</v>
+        <v>15.28030233333333</v>
       </c>
       <c r="H17">
-        <v>14.8394210114443</v>
+        <v>45.840907</v>
       </c>
       <c r="I17">
-        <v>0.04088968163501853</v>
+        <v>0.04181572421611635</v>
       </c>
       <c r="J17">
-        <v>0.04088968163501853</v>
+        <v>0.04181572421611637</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N17">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O17">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P17">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q17">
-        <v>59.86628335134044</v>
+        <v>71.33687073858566</v>
       </c>
       <c r="R17">
-        <v>59.86628335134044</v>
+        <v>642.031836647271</v>
       </c>
       <c r="S17">
-        <v>0.001530686378925768</v>
+        <v>0.001618658304597407</v>
       </c>
       <c r="T17">
-        <v>0.001530686378925768</v>
+        <v>0.001618658304597407</v>
       </c>
     </row>
   </sheetData>
